--- a/VIDA2/data/JI-PARANA.xlsx
+++ b/VIDA2/data/JI-PARANA.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>182.668</v>
+        <v>184.4735</v>
       </c>
       <c r="D2" t="n">
-        <v>129.3933690420496</v>
+        <v>128.521820047884</v>
       </c>
       <c r="E2" t="n">
-        <v>45.87126999227133</v>
+        <v>45.81260797543551</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>216.272</v>
+        <v>215.735</v>
       </c>
       <c r="D3" t="n">
-        <v>126.5004919590861</v>
+        <v>126.9762964204644</v>
       </c>
       <c r="E3" t="n">
-        <v>45.35703147699554</v>
+        <v>45.60830907730755</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>224.386</v>
+        <v>224.691</v>
       </c>
       <c r="D4" t="n">
-        <v>126.8938195660134</v>
+        <v>127.8673558780676</v>
       </c>
       <c r="E4" t="n">
-        <v>46.47443910693796</v>
+        <v>45.80337977137958</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>230.046</v>
+        <v>230.0535</v>
       </c>
       <c r="D5" t="n">
-        <v>127.5468446182789</v>
+        <v>128.334614756432</v>
       </c>
       <c r="E5" t="n">
-        <v>44.84182120746237</v>
+        <v>46.08583807624629</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>341.574</v>
+        <v>340.809</v>
       </c>
       <c r="D6" t="n">
-        <v>136.2535905081858</v>
+        <v>136.1043646525765</v>
       </c>
       <c r="E6" t="n">
-        <v>48.85367780252285</v>
+        <v>48.63377622570723</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>452.36</v>
+        <v>452.5395</v>
       </c>
       <c r="D7" t="n">
-        <v>127.9628574672789</v>
+        <v>127.4571571662839</v>
       </c>
       <c r="E7" t="n">
-        <v>45.69315763441136</v>
+        <v>45.39417195616632</v>
       </c>
     </row>
   </sheetData>
